--- a/aug_pc_result/2026_Jan_21_11_32_30_d_separation_kci_pc_gt_graph_AdaSyn_20_909088/ori_pc_raw_eval_res.xlsx
+++ b/aug_pc_result/2026_Jan_21_11_32_30_d_separation_kci_pc_gt_graph_AdaSyn_20_909088/ori_pc_raw_eval_res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CausalLearning\code\aug_pc_result\2026_Jan_21_11_32_30_d_separation_kci_pc_gt_graph_AdaSyn_20_909088\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2935D008-243F-4121-94B6-6A0EFC434430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE5E299-B225-4845-A2E8-3C84CB8BD3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="40">
   <si>
     <t>noise</t>
   </si>
@@ -514,7 +514,7 @@
   <dimension ref="A1:AD257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F219" workbookViewId="0">
-      <selection activeCell="O235" sqref="O235"/>
+      <selection activeCell="M230" sqref="M230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -687,8 +687,8 @@
       <c r="Y2" t="s">
         <v>35</v>
       </c>
-      <c r="Z2">
-        <v>20</v>
+      <c r="Z2" t="s">
+        <v>37</v>
       </c>
       <c r="AA2" t="s">
         <v>36</v>
@@ -779,8 +779,8 @@
       <c r="Y3" t="s">
         <v>35</v>
       </c>
-      <c r="Z3">
-        <v>20</v>
+      <c r="Z3" t="s">
+        <v>37</v>
       </c>
       <c r="AA3" t="s">
         <v>36</v>
@@ -871,8 +871,8 @@
       <c r="Y4" t="s">
         <v>35</v>
       </c>
-      <c r="Z4">
-        <v>20</v>
+      <c r="Z4" t="s">
+        <v>37</v>
       </c>
       <c r="AA4" t="s">
         <v>36</v>
@@ -963,8 +963,8 @@
       <c r="Y5" t="s">
         <v>35</v>
       </c>
-      <c r="Z5">
-        <v>20</v>
+      <c r="Z5" t="s">
+        <v>37</v>
       </c>
       <c r="AA5" t="s">
         <v>36</v>
@@ -1055,8 +1055,8 @@
       <c r="Y6" t="s">
         <v>35</v>
       </c>
-      <c r="Z6">
-        <v>20</v>
+      <c r="Z6" t="s">
+        <v>37</v>
       </c>
       <c r="AA6" t="s">
         <v>36</v>
@@ -1147,8 +1147,8 @@
       <c r="Y7" t="s">
         <v>35</v>
       </c>
-      <c r="Z7">
-        <v>20</v>
+      <c r="Z7" t="s">
+        <v>37</v>
       </c>
       <c r="AA7" t="s">
         <v>36</v>
@@ -1239,8 +1239,8 @@
       <c r="Y8" t="s">
         <v>35</v>
       </c>
-      <c r="Z8">
-        <v>20</v>
+      <c r="Z8" t="s">
+        <v>37</v>
       </c>
       <c r="AA8" t="s">
         <v>36</v>
@@ -1331,8 +1331,8 @@
       <c r="Y9" t="s">
         <v>35</v>
       </c>
-      <c r="Z9">
-        <v>20</v>
+      <c r="Z9" t="s">
+        <v>37</v>
       </c>
       <c r="AA9" t="s">
         <v>36</v>
@@ -1423,8 +1423,8 @@
       <c r="Y10" t="s">
         <v>35</v>
       </c>
-      <c r="Z10">
-        <v>20</v>
+      <c r="Z10" t="s">
+        <v>37</v>
       </c>
       <c r="AA10" t="s">
         <v>36</v>
@@ -1515,8 +1515,8 @@
       <c r="Y11" t="s">
         <v>35</v>
       </c>
-      <c r="Z11">
-        <v>20</v>
+      <c r="Z11" t="s">
+        <v>37</v>
       </c>
       <c r="AA11" t="s">
         <v>36</v>
@@ -1607,8 +1607,8 @@
       <c r="Y12" t="s">
         <v>35</v>
       </c>
-      <c r="Z12">
-        <v>20</v>
+      <c r="Z12" t="s">
+        <v>37</v>
       </c>
       <c r="AA12" t="s">
         <v>36</v>
@@ -1699,8 +1699,8 @@
       <c r="Y13" t="s">
         <v>35</v>
       </c>
-      <c r="Z13">
-        <v>20</v>
+      <c r="Z13" t="s">
+        <v>37</v>
       </c>
       <c r="AA13" t="s">
         <v>36</v>
@@ -1791,8 +1791,8 @@
       <c r="Y14" t="s">
         <v>35</v>
       </c>
-      <c r="Z14">
-        <v>20</v>
+      <c r="Z14" t="s">
+        <v>37</v>
       </c>
       <c r="AA14" t="s">
         <v>36</v>
@@ -1883,8 +1883,8 @@
       <c r="Y15" t="s">
         <v>35</v>
       </c>
-      <c r="Z15">
-        <v>20</v>
+      <c r="Z15" t="s">
+        <v>37</v>
       </c>
       <c r="AA15" t="s">
         <v>36</v>
@@ -1975,8 +1975,8 @@
       <c r="Y16" t="s">
         <v>35</v>
       </c>
-      <c r="Z16">
-        <v>20</v>
+      <c r="Z16" t="s">
+        <v>37</v>
       </c>
       <c r="AA16" t="s">
         <v>36</v>
@@ -2067,8 +2067,8 @@
       <c r="Y17" t="s">
         <v>35</v>
       </c>
-      <c r="Z17">
-        <v>20</v>
+      <c r="Z17" t="s">
+        <v>37</v>
       </c>
       <c r="AA17" t="s">
         <v>36</v>
@@ -2159,8 +2159,8 @@
       <c r="Y18" t="s">
         <v>35</v>
       </c>
-      <c r="Z18">
-        <v>20</v>
+      <c r="Z18" t="s">
+        <v>37</v>
       </c>
       <c r="AA18" t="s">
         <v>36</v>
@@ -2251,8 +2251,8 @@
       <c r="Y19" t="s">
         <v>35</v>
       </c>
-      <c r="Z19">
-        <v>20</v>
+      <c r="Z19" t="s">
+        <v>37</v>
       </c>
       <c r="AA19" t="s">
         <v>36</v>
@@ -2343,8 +2343,8 @@
       <c r="Y20" t="s">
         <v>35</v>
       </c>
-      <c r="Z20">
-        <v>20</v>
+      <c r="Z20" t="s">
+        <v>37</v>
       </c>
       <c r="AA20" t="s">
         <v>36</v>
@@ -2435,8 +2435,8 @@
       <c r="Y21" t="s">
         <v>35</v>
       </c>
-      <c r="Z21">
-        <v>20</v>
+      <c r="Z21" t="s">
+        <v>37</v>
       </c>
       <c r="AA21" t="s">
         <v>36</v>
@@ -2527,8 +2527,8 @@
       <c r="Y22" t="s">
         <v>35</v>
       </c>
-      <c r="Z22">
-        <v>20</v>
+      <c r="Z22" t="s">
+        <v>37</v>
       </c>
       <c r="AA22" t="s">
         <v>36</v>
@@ -2619,8 +2619,8 @@
       <c r="Y23" t="s">
         <v>35</v>
       </c>
-      <c r="Z23">
-        <v>20</v>
+      <c r="Z23" t="s">
+        <v>37</v>
       </c>
       <c r="AA23" t="s">
         <v>36</v>
@@ -2711,8 +2711,8 @@
       <c r="Y24" t="s">
         <v>35</v>
       </c>
-      <c r="Z24">
-        <v>20</v>
+      <c r="Z24" t="s">
+        <v>37</v>
       </c>
       <c r="AA24" t="s">
         <v>36</v>
@@ -2803,8 +2803,8 @@
       <c r="Y25" t="s">
         <v>35</v>
       </c>
-      <c r="Z25">
-        <v>20</v>
+      <c r="Z25" t="s">
+        <v>37</v>
       </c>
       <c r="AA25" t="s">
         <v>36</v>
@@ -2895,8 +2895,8 @@
       <c r="Y26" t="s">
         <v>35</v>
       </c>
-      <c r="Z26">
-        <v>20</v>
+      <c r="Z26" t="s">
+        <v>37</v>
       </c>
       <c r="AA26" t="s">
         <v>36</v>
@@ -2987,8 +2987,8 @@
       <c r="Y27" t="s">
         <v>35</v>
       </c>
-      <c r="Z27">
-        <v>20</v>
+      <c r="Z27" t="s">
+        <v>37</v>
       </c>
       <c r="AA27" t="s">
         <v>36</v>
@@ -3079,8 +3079,8 @@
       <c r="Y28" t="s">
         <v>35</v>
       </c>
-      <c r="Z28">
-        <v>20</v>
+      <c r="Z28" t="s">
+        <v>37</v>
       </c>
       <c r="AA28" t="s">
         <v>36</v>
@@ -3171,8 +3171,8 @@
       <c r="Y29" t="s">
         <v>35</v>
       </c>
-      <c r="Z29">
-        <v>20</v>
+      <c r="Z29" t="s">
+        <v>37</v>
       </c>
       <c r="AA29" t="s">
         <v>36</v>
@@ -3263,8 +3263,8 @@
       <c r="Y30" t="s">
         <v>35</v>
       </c>
-      <c r="Z30">
-        <v>20</v>
+      <c r="Z30" t="s">
+        <v>37</v>
       </c>
       <c r="AA30" t="s">
         <v>36</v>
@@ -3355,8 +3355,8 @@
       <c r="Y31" t="s">
         <v>35</v>
       </c>
-      <c r="Z31">
-        <v>20</v>
+      <c r="Z31" t="s">
+        <v>37</v>
       </c>
       <c r="AA31" t="s">
         <v>36</v>
@@ -3447,8 +3447,8 @@
       <c r="Y32" t="s">
         <v>35</v>
       </c>
-      <c r="Z32">
-        <v>20</v>
+      <c r="Z32" t="s">
+        <v>37</v>
       </c>
       <c r="AA32" t="s">
         <v>36</v>
@@ -3539,8 +3539,8 @@
       <c r="Y33" t="s">
         <v>35</v>
       </c>
-      <c r="Z33">
-        <v>20</v>
+      <c r="Z33" t="s">
+        <v>37</v>
       </c>
       <c r="AA33" t="s">
         <v>36</v>
@@ -3631,8 +3631,8 @@
       <c r="Y34" t="s">
         <v>35</v>
       </c>
-      <c r="Z34">
-        <v>20</v>
+      <c r="Z34" t="s">
+        <v>37</v>
       </c>
       <c r="AA34" t="s">
         <v>36</v>
@@ -3723,8 +3723,8 @@
       <c r="Y35" t="s">
         <v>35</v>
       </c>
-      <c r="Z35">
-        <v>20</v>
+      <c r="Z35" t="s">
+        <v>37</v>
       </c>
       <c r="AA35" t="s">
         <v>36</v>
@@ -3815,8 +3815,8 @@
       <c r="Y36" t="s">
         <v>35</v>
       </c>
-      <c r="Z36">
-        <v>20</v>
+      <c r="Z36" t="s">
+        <v>37</v>
       </c>
       <c r="AA36" t="s">
         <v>36</v>
@@ -3907,8 +3907,8 @@
       <c r="Y37" t="s">
         <v>35</v>
       </c>
-      <c r="Z37">
-        <v>20</v>
+      <c r="Z37" t="s">
+        <v>37</v>
       </c>
       <c r="AA37" t="s">
         <v>36</v>
@@ -3999,8 +3999,8 @@
       <c r="Y38" t="s">
         <v>35</v>
       </c>
-      <c r="Z38">
-        <v>20</v>
+      <c r="Z38" t="s">
+        <v>37</v>
       </c>
       <c r="AA38" t="s">
         <v>36</v>
@@ -4091,8 +4091,8 @@
       <c r="Y39" t="s">
         <v>35</v>
       </c>
-      <c r="Z39">
-        <v>20</v>
+      <c r="Z39" t="s">
+        <v>37</v>
       </c>
       <c r="AA39" t="s">
         <v>36</v>
@@ -4183,8 +4183,8 @@
       <c r="Y40" t="s">
         <v>35</v>
       </c>
-      <c r="Z40">
-        <v>20</v>
+      <c r="Z40" t="s">
+        <v>37</v>
       </c>
       <c r="AA40" t="s">
         <v>36</v>
@@ -4275,8 +4275,8 @@
       <c r="Y41" t="s">
         <v>35</v>
       </c>
-      <c r="Z41">
-        <v>20</v>
+      <c r="Z41" t="s">
+        <v>37</v>
       </c>
       <c r="AA41" t="s">
         <v>36</v>
@@ -4367,8 +4367,8 @@
       <c r="Y42" t="s">
         <v>35</v>
       </c>
-      <c r="Z42">
-        <v>20</v>
+      <c r="Z42" t="s">
+        <v>37</v>
       </c>
       <c r="AA42" t="s">
         <v>36</v>
@@ -4459,8 +4459,8 @@
       <c r="Y43" t="s">
         <v>35</v>
       </c>
-      <c r="Z43">
-        <v>20</v>
+      <c r="Z43" t="s">
+        <v>37</v>
       </c>
       <c r="AA43" t="s">
         <v>36</v>
@@ -4551,8 +4551,8 @@
       <c r="Y44" t="s">
         <v>35</v>
       </c>
-      <c r="Z44">
-        <v>20</v>
+      <c r="Z44" t="s">
+        <v>37</v>
       </c>
       <c r="AA44" t="s">
         <v>36</v>
@@ -4643,8 +4643,8 @@
       <c r="Y45" t="s">
         <v>35</v>
       </c>
-      <c r="Z45">
-        <v>20</v>
+      <c r="Z45" t="s">
+        <v>37</v>
       </c>
       <c r="AA45" t="s">
         <v>36</v>
@@ -4735,8 +4735,8 @@
       <c r="Y46" t="s">
         <v>35</v>
       </c>
-      <c r="Z46">
-        <v>20</v>
+      <c r="Z46" t="s">
+        <v>37</v>
       </c>
       <c r="AA46" t="s">
         <v>36</v>
@@ -4827,8 +4827,8 @@
       <c r="Y47" t="s">
         <v>35</v>
       </c>
-      <c r="Z47">
-        <v>20</v>
+      <c r="Z47" t="s">
+        <v>37</v>
       </c>
       <c r="AA47" t="s">
         <v>36</v>
@@ -4919,8 +4919,8 @@
       <c r="Y48" t="s">
         <v>35</v>
       </c>
-      <c r="Z48">
-        <v>20</v>
+      <c r="Z48" t="s">
+        <v>37</v>
       </c>
       <c r="AA48" t="s">
         <v>36</v>
@@ -5011,8 +5011,8 @@
       <c r="Y49" t="s">
         <v>35</v>
       </c>
-      <c r="Z49">
-        <v>20</v>
+      <c r="Z49" t="s">
+        <v>37</v>
       </c>
       <c r="AA49" t="s">
         <v>36</v>
@@ -5103,8 +5103,8 @@
       <c r="Y50" t="s">
         <v>35</v>
       </c>
-      <c r="Z50">
-        <v>20</v>
+      <c r="Z50" t="s">
+        <v>37</v>
       </c>
       <c r="AA50" t="s">
         <v>36</v>
@@ -5195,8 +5195,8 @@
       <c r="Y51" t="s">
         <v>35</v>
       </c>
-      <c r="Z51">
-        <v>20</v>
+      <c r="Z51" t="s">
+        <v>37</v>
       </c>
       <c r="AA51" t="s">
         <v>36</v>
@@ -5287,8 +5287,8 @@
       <c r="Y52" t="s">
         <v>35</v>
       </c>
-      <c r="Z52">
-        <v>20</v>
+      <c r="Z52" t="s">
+        <v>37</v>
       </c>
       <c r="AA52" t="s">
         <v>36</v>
@@ -5379,8 +5379,8 @@
       <c r="Y53" t="s">
         <v>35</v>
       </c>
-      <c r="Z53">
-        <v>20</v>
+      <c r="Z53" t="s">
+        <v>37</v>
       </c>
       <c r="AA53" t="s">
         <v>36</v>
@@ -5471,8 +5471,8 @@
       <c r="Y54" t="s">
         <v>35</v>
       </c>
-      <c r="Z54">
-        <v>20</v>
+      <c r="Z54" t="s">
+        <v>37</v>
       </c>
       <c r="AA54" t="s">
         <v>36</v>
@@ -5563,8 +5563,8 @@
       <c r="Y55" t="s">
         <v>35</v>
       </c>
-      <c r="Z55">
-        <v>20</v>
+      <c r="Z55" t="s">
+        <v>37</v>
       </c>
       <c r="AA55" t="s">
         <v>36</v>
@@ -5655,8 +5655,8 @@
       <c r="Y56" t="s">
         <v>35</v>
       </c>
-      <c r="Z56">
-        <v>20</v>
+      <c r="Z56" t="s">
+        <v>37</v>
       </c>
       <c r="AA56" t="s">
         <v>36</v>
@@ -5747,8 +5747,8 @@
       <c r="Y57" t="s">
         <v>35</v>
       </c>
-      <c r="Z57">
-        <v>20</v>
+      <c r="Z57" t="s">
+        <v>37</v>
       </c>
       <c r="AA57" t="s">
         <v>36</v>
@@ -5839,8 +5839,8 @@
       <c r="Y58" t="s">
         <v>35</v>
       </c>
-      <c r="Z58">
-        <v>20</v>
+      <c r="Z58" t="s">
+        <v>37</v>
       </c>
       <c r="AA58" t="s">
         <v>36</v>
@@ -5931,8 +5931,8 @@
       <c r="Y59" t="s">
         <v>35</v>
       </c>
-      <c r="Z59">
-        <v>20</v>
+      <c r="Z59" t="s">
+        <v>37</v>
       </c>
       <c r="AA59" t="s">
         <v>36</v>
@@ -6023,8 +6023,8 @@
       <c r="Y60" t="s">
         <v>35</v>
       </c>
-      <c r="Z60">
-        <v>20</v>
+      <c r="Z60" t="s">
+        <v>37</v>
       </c>
       <c r="AA60" t="s">
         <v>36</v>
@@ -6115,8 +6115,8 @@
       <c r="Y61" t="s">
         <v>35</v>
       </c>
-      <c r="Z61">
-        <v>20</v>
+      <c r="Z61" t="s">
+        <v>37</v>
       </c>
       <c r="AA61" t="s">
         <v>36</v>
@@ -6207,8 +6207,8 @@
       <c r="Y62" t="s">
         <v>35</v>
       </c>
-      <c r="Z62">
-        <v>20</v>
+      <c r="Z62" t="s">
+        <v>37</v>
       </c>
       <c r="AA62" t="s">
         <v>36</v>
@@ -6299,8 +6299,8 @@
       <c r="Y63" t="s">
         <v>35</v>
       </c>
-      <c r="Z63">
-        <v>20</v>
+      <c r="Z63" t="s">
+        <v>37</v>
       </c>
       <c r="AA63" t="s">
         <v>36</v>
@@ -6391,8 +6391,8 @@
       <c r="Y64" t="s">
         <v>35</v>
       </c>
-      <c r="Z64">
-        <v>20</v>
+      <c r="Z64" t="s">
+        <v>37</v>
       </c>
       <c r="AA64" t="s">
         <v>36</v>
@@ -6483,8 +6483,8 @@
       <c r="Y65" t="s">
         <v>35</v>
       </c>
-      <c r="Z65">
-        <v>20</v>
+      <c r="Z65" t="s">
+        <v>37</v>
       </c>
       <c r="AA65" t="s">
         <v>36</v>
@@ -6575,8 +6575,8 @@
       <c r="Y66" t="s">
         <v>35</v>
       </c>
-      <c r="Z66">
-        <v>20</v>
+      <c r="Z66" t="s">
+        <v>37</v>
       </c>
       <c r="AA66" t="s">
         <v>36</v>
@@ -6667,8 +6667,8 @@
       <c r="Y67" t="s">
         <v>35</v>
       </c>
-      <c r="Z67">
-        <v>20</v>
+      <c r="Z67" t="s">
+        <v>37</v>
       </c>
       <c r="AA67" t="s">
         <v>36</v>
@@ -6759,8 +6759,8 @@
       <c r="Y68" t="s">
         <v>35</v>
       </c>
-      <c r="Z68">
-        <v>20</v>
+      <c r="Z68" t="s">
+        <v>37</v>
       </c>
       <c r="AA68" t="s">
         <v>36</v>
@@ -6851,8 +6851,8 @@
       <c r="Y69" t="s">
         <v>35</v>
       </c>
-      <c r="Z69">
-        <v>20</v>
+      <c r="Z69" t="s">
+        <v>37</v>
       </c>
       <c r="AA69" t="s">
         <v>36</v>
@@ -6943,8 +6943,8 @@
       <c r="Y70" t="s">
         <v>35</v>
       </c>
-      <c r="Z70">
-        <v>20</v>
+      <c r="Z70" t="s">
+        <v>37</v>
       </c>
       <c r="AA70" t="s">
         <v>36</v>
@@ -7035,8 +7035,8 @@
       <c r="Y71" t="s">
         <v>35</v>
       </c>
-      <c r="Z71">
-        <v>20</v>
+      <c r="Z71" t="s">
+        <v>37</v>
       </c>
       <c r="AA71" t="s">
         <v>36</v>
@@ -7127,8 +7127,8 @@
       <c r="Y72" t="s">
         <v>35</v>
       </c>
-      <c r="Z72">
-        <v>20</v>
+      <c r="Z72" t="s">
+        <v>37</v>
       </c>
       <c r="AA72" t="s">
         <v>36</v>
@@ -7219,8 +7219,8 @@
       <c r="Y73" t="s">
         <v>35</v>
       </c>
-      <c r="Z73">
-        <v>20</v>
+      <c r="Z73" t="s">
+        <v>37</v>
       </c>
       <c r="AA73" t="s">
         <v>36</v>
@@ -7311,8 +7311,8 @@
       <c r="Y74" t="s">
         <v>35</v>
       </c>
-      <c r="Z74">
-        <v>20</v>
+      <c r="Z74" t="s">
+        <v>37</v>
       </c>
       <c r="AA74" t="s">
         <v>36</v>
@@ -7403,8 +7403,8 @@
       <c r="Y75" t="s">
         <v>35</v>
       </c>
-      <c r="Z75">
-        <v>20</v>
+      <c r="Z75" t="s">
+        <v>37</v>
       </c>
       <c r="AA75" t="s">
         <v>36</v>
@@ -7495,8 +7495,8 @@
       <c r="Y76" t="s">
         <v>35</v>
       </c>
-      <c r="Z76">
-        <v>20</v>
+      <c r="Z76" t="s">
+        <v>37</v>
       </c>
       <c r="AA76" t="s">
         <v>36</v>
@@ -7587,8 +7587,8 @@
       <c r="Y77" t="s">
         <v>35</v>
       </c>
-      <c r="Z77">
-        <v>20</v>
+      <c r="Z77" t="s">
+        <v>37</v>
       </c>
       <c r="AA77" t="s">
         <v>36</v>
@@ -7679,8 +7679,8 @@
       <c r="Y78" t="s">
         <v>35</v>
       </c>
-      <c r="Z78">
-        <v>20</v>
+      <c r="Z78" t="s">
+        <v>37</v>
       </c>
       <c r="AA78" t="s">
         <v>36</v>
@@ -7771,8 +7771,8 @@
       <c r="Y79" t="s">
         <v>35</v>
       </c>
-      <c r="Z79">
-        <v>20</v>
+      <c r="Z79" t="s">
+        <v>37</v>
       </c>
       <c r="AA79" t="s">
         <v>36</v>
@@ -7863,8 +7863,8 @@
       <c r="Y80" t="s">
         <v>35</v>
       </c>
-      <c r="Z80">
-        <v>20</v>
+      <c r="Z80" t="s">
+        <v>37</v>
       </c>
       <c r="AA80" t="s">
         <v>36</v>
@@ -7955,8 +7955,8 @@
       <c r="Y81" t="s">
         <v>35</v>
       </c>
-      <c r="Z81">
-        <v>20</v>
+      <c r="Z81" t="s">
+        <v>37</v>
       </c>
       <c r="AA81" t="s">
         <v>36</v>
@@ -8047,8 +8047,8 @@
       <c r="Y82" t="s">
         <v>35</v>
       </c>
-      <c r="Z82">
-        <v>20</v>
+      <c r="Z82" t="s">
+        <v>37</v>
       </c>
       <c r="AA82" t="s">
         <v>36</v>
@@ -8139,8 +8139,8 @@
       <c r="Y83" t="s">
         <v>35</v>
       </c>
-      <c r="Z83">
-        <v>20</v>
+      <c r="Z83" t="s">
+        <v>37</v>
       </c>
       <c r="AA83" t="s">
         <v>36</v>
@@ -8231,8 +8231,8 @@
       <c r="Y84" t="s">
         <v>35</v>
       </c>
-      <c r="Z84">
-        <v>20</v>
+      <c r="Z84" t="s">
+        <v>37</v>
       </c>
       <c r="AA84" t="s">
         <v>36</v>
@@ -8323,8 +8323,8 @@
       <c r="Y85" t="s">
         <v>35</v>
       </c>
-      <c r="Z85">
-        <v>20</v>
+      <c r="Z85" t="s">
+        <v>37</v>
       </c>
       <c r="AA85" t="s">
         <v>36</v>
@@ -8415,8 +8415,8 @@
       <c r="Y86" t="s">
         <v>35</v>
       </c>
-      <c r="Z86">
-        <v>20</v>
+      <c r="Z86" t="s">
+        <v>37</v>
       </c>
       <c r="AA86" t="s">
         <v>36</v>
@@ -8507,8 +8507,8 @@
       <c r="Y87" t="s">
         <v>35</v>
       </c>
-      <c r="Z87">
-        <v>20</v>
+      <c r="Z87" t="s">
+        <v>37</v>
       </c>
       <c r="AA87" t="s">
         <v>36</v>
@@ -8599,8 +8599,8 @@
       <c r="Y88" t="s">
         <v>35</v>
       </c>
-      <c r="Z88">
-        <v>20</v>
+      <c r="Z88" t="s">
+        <v>37</v>
       </c>
       <c r="AA88" t="s">
         <v>36</v>
@@ -8691,8 +8691,8 @@
       <c r="Y89" t="s">
         <v>35</v>
       </c>
-      <c r="Z89">
-        <v>20</v>
+      <c r="Z89" t="s">
+        <v>37</v>
       </c>
       <c r="AA89" t="s">
         <v>36</v>
@@ -8783,8 +8783,8 @@
       <c r="Y90" t="s">
         <v>35</v>
       </c>
-      <c r="Z90">
-        <v>20</v>
+      <c r="Z90" t="s">
+        <v>37</v>
       </c>
       <c r="AA90" t="s">
         <v>36</v>
@@ -8875,8 +8875,8 @@
       <c r="Y91" t="s">
         <v>35</v>
       </c>
-      <c r="Z91">
-        <v>20</v>
+      <c r="Z91" t="s">
+        <v>37</v>
       </c>
       <c r="AA91" t="s">
         <v>36</v>
@@ -8967,8 +8967,8 @@
       <c r="Y92" t="s">
         <v>35</v>
       </c>
-      <c r="Z92">
-        <v>20</v>
+      <c r="Z92" t="s">
+        <v>37</v>
       </c>
       <c r="AA92" t="s">
         <v>36</v>
@@ -9059,8 +9059,8 @@
       <c r="Y93" t="s">
         <v>35</v>
       </c>
-      <c r="Z93">
-        <v>20</v>
+      <c r="Z93" t="s">
+        <v>37</v>
       </c>
       <c r="AA93" t="s">
         <v>36</v>
@@ -9151,8 +9151,8 @@
       <c r="Y94" t="s">
         <v>35</v>
       </c>
-      <c r="Z94">
-        <v>20</v>
+      <c r="Z94" t="s">
+        <v>37</v>
       </c>
       <c r="AA94" t="s">
         <v>36</v>
@@ -9243,8 +9243,8 @@
       <c r="Y95" t="s">
         <v>35</v>
       </c>
-      <c r="Z95">
-        <v>20</v>
+      <c r="Z95" t="s">
+        <v>37</v>
       </c>
       <c r="AA95" t="s">
         <v>36</v>
@@ -9335,8 +9335,8 @@
       <c r="Y96" t="s">
         <v>35</v>
       </c>
-      <c r="Z96">
-        <v>20</v>
+      <c r="Z96" t="s">
+        <v>37</v>
       </c>
       <c r="AA96" t="s">
         <v>36</v>
@@ -9427,8 +9427,8 @@
       <c r="Y97" t="s">
         <v>35</v>
       </c>
-      <c r="Z97">
-        <v>20</v>
+      <c r="Z97" t="s">
+        <v>37</v>
       </c>
       <c r="AA97" t="s">
         <v>36</v>
@@ -9519,8 +9519,8 @@
       <c r="Y98" t="s">
         <v>35</v>
       </c>
-      <c r="Z98">
-        <v>20</v>
+      <c r="Z98" t="s">
+        <v>37</v>
       </c>
       <c r="AA98" t="s">
         <v>36</v>
@@ -9611,8 +9611,8 @@
       <c r="Y99" t="s">
         <v>35</v>
       </c>
-      <c r="Z99">
-        <v>20</v>
+      <c r="Z99" t="s">
+        <v>37</v>
       </c>
       <c r="AA99" t="s">
         <v>36</v>
@@ -9703,8 +9703,8 @@
       <c r="Y100" t="s">
         <v>35</v>
       </c>
-      <c r="Z100">
-        <v>20</v>
+      <c r="Z100" t="s">
+        <v>37</v>
       </c>
       <c r="AA100" t="s">
         <v>36</v>
@@ -9795,8 +9795,8 @@
       <c r="Y101" t="s">
         <v>35</v>
       </c>
-      <c r="Z101">
-        <v>20</v>
+      <c r="Z101" t="s">
+        <v>37</v>
       </c>
       <c r="AA101" t="s">
         <v>36</v>
@@ -9887,8 +9887,8 @@
       <c r="Y102" t="s">
         <v>35</v>
       </c>
-      <c r="Z102">
-        <v>20</v>
+      <c r="Z102" t="s">
+        <v>37</v>
       </c>
       <c r="AA102" t="s">
         <v>36</v>
@@ -9979,8 +9979,8 @@
       <c r="Y103" t="s">
         <v>35</v>
       </c>
-      <c r="Z103">
-        <v>20</v>
+      <c r="Z103" t="s">
+        <v>37</v>
       </c>
       <c r="AA103" t="s">
         <v>36</v>
@@ -10071,8 +10071,8 @@
       <c r="Y104" t="s">
         <v>35</v>
       </c>
-      <c r="Z104">
-        <v>20</v>
+      <c r="Z104" t="s">
+        <v>37</v>
       </c>
       <c r="AA104" t="s">
         <v>36</v>
@@ -10163,8 +10163,8 @@
       <c r="Y105" t="s">
         <v>35</v>
       </c>
-      <c r="Z105">
-        <v>20</v>
+      <c r="Z105" t="s">
+        <v>37</v>
       </c>
       <c r="AA105" t="s">
         <v>36</v>
@@ -10255,8 +10255,8 @@
       <c r="Y106" t="s">
         <v>35</v>
       </c>
-      <c r="Z106">
-        <v>20</v>
+      <c r="Z106" t="s">
+        <v>37</v>
       </c>
       <c r="AA106" t="s">
         <v>36</v>
@@ -10347,8 +10347,8 @@
       <c r="Y107" t="s">
         <v>35</v>
       </c>
-      <c r="Z107">
-        <v>20</v>
+      <c r="Z107" t="s">
+        <v>37</v>
       </c>
       <c r="AA107" t="s">
         <v>36</v>
@@ -10439,8 +10439,8 @@
       <c r="Y108" t="s">
         <v>35</v>
       </c>
-      <c r="Z108">
-        <v>20</v>
+      <c r="Z108" t="s">
+        <v>37</v>
       </c>
       <c r="AA108" t="s">
         <v>36</v>
@@ -10531,8 +10531,8 @@
       <c r="Y109" t="s">
         <v>35</v>
       </c>
-      <c r="Z109">
-        <v>20</v>
+      <c r="Z109" t="s">
+        <v>37</v>
       </c>
       <c r="AA109" t="s">
         <v>36</v>
@@ -10623,8 +10623,8 @@
       <c r="Y110" t="s">
         <v>35</v>
       </c>
-      <c r="Z110">
-        <v>20</v>
+      <c r="Z110" t="s">
+        <v>37</v>
       </c>
       <c r="AA110" t="s">
         <v>36</v>
@@ -10715,8 +10715,8 @@
       <c r="Y111" t="s">
         <v>35</v>
       </c>
-      <c r="Z111">
-        <v>20</v>
+      <c r="Z111" t="s">
+        <v>37</v>
       </c>
       <c r="AA111" t="s">
         <v>36</v>
@@ -10807,8 +10807,8 @@
       <c r="Y112" t="s">
         <v>35</v>
       </c>
-      <c r="Z112">
-        <v>20</v>
+      <c r="Z112" t="s">
+        <v>37</v>
       </c>
       <c r="AA112" t="s">
         <v>36</v>
@@ -10899,8 +10899,8 @@
       <c r="Y113" t="s">
         <v>35</v>
       </c>
-      <c r="Z113">
-        <v>20</v>
+      <c r="Z113" t="s">
+        <v>37</v>
       </c>
       <c r="AA113" t="s">
         <v>36</v>
@@ -10991,8 +10991,8 @@
       <c r="Y114" t="s">
         <v>35</v>
       </c>
-      <c r="Z114">
-        <v>20</v>
+      <c r="Z114" t="s">
+        <v>37</v>
       </c>
       <c r="AA114" t="s">
         <v>36</v>
@@ -11083,8 +11083,8 @@
       <c r="Y115" t="s">
         <v>35</v>
       </c>
-      <c r="Z115">
-        <v>20</v>
+      <c r="Z115" t="s">
+        <v>37</v>
       </c>
       <c r="AA115" t="s">
         <v>36</v>
@@ -11175,8 +11175,8 @@
       <c r="Y116" t="s">
         <v>35</v>
       </c>
-      <c r="Z116">
-        <v>20</v>
+      <c r="Z116" t="s">
+        <v>37</v>
       </c>
       <c r="AA116" t="s">
         <v>36</v>
@@ -11267,8 +11267,8 @@
       <c r="Y117" t="s">
         <v>35</v>
       </c>
-      <c r="Z117">
-        <v>20</v>
+      <c r="Z117" t="s">
+        <v>37</v>
       </c>
       <c r="AA117" t="s">
         <v>36</v>
@@ -11359,8 +11359,8 @@
       <c r="Y118" t="s">
         <v>35</v>
       </c>
-      <c r="Z118">
-        <v>20</v>
+      <c r="Z118" t="s">
+        <v>37</v>
       </c>
       <c r="AA118" t="s">
         <v>36</v>
@@ -11451,8 +11451,8 @@
       <c r="Y119" t="s">
         <v>35</v>
       </c>
-      <c r="Z119">
-        <v>20</v>
+      <c r="Z119" t="s">
+        <v>37</v>
       </c>
       <c r="AA119" t="s">
         <v>36</v>
@@ -11543,8 +11543,8 @@
       <c r="Y120" t="s">
         <v>35</v>
       </c>
-      <c r="Z120">
-        <v>20</v>
+      <c r="Z120" t="s">
+        <v>37</v>
       </c>
       <c r="AA120" t="s">
         <v>36</v>
@@ -11635,8 +11635,8 @@
       <c r="Y121" t="s">
         <v>35</v>
       </c>
-      <c r="Z121">
-        <v>20</v>
+      <c r="Z121" t="s">
+        <v>37</v>
       </c>
       <c r="AA121" t="s">
         <v>36</v>
@@ -11727,8 +11727,8 @@
       <c r="Y122" t="s">
         <v>35</v>
       </c>
-      <c r="Z122">
-        <v>20</v>
+      <c r="Z122" t="s">
+        <v>37</v>
       </c>
       <c r="AA122" t="s">
         <v>36</v>
@@ -11819,8 +11819,8 @@
       <c r="Y123" t="s">
         <v>35</v>
       </c>
-      <c r="Z123">
-        <v>20</v>
+      <c r="Z123" t="s">
+        <v>37</v>
       </c>
       <c r="AA123" t="s">
         <v>36</v>
@@ -11911,8 +11911,8 @@
       <c r="Y124" t="s">
         <v>35</v>
       </c>
-      <c r="Z124">
-        <v>20</v>
+      <c r="Z124" t="s">
+        <v>37</v>
       </c>
       <c r="AA124" t="s">
         <v>36</v>
@@ -12003,8 +12003,8 @@
       <c r="Y125" t="s">
         <v>35</v>
       </c>
-      <c r="Z125">
-        <v>20</v>
+      <c r="Z125" t="s">
+        <v>37</v>
       </c>
       <c r="AA125" t="s">
         <v>36</v>
@@ -12095,8 +12095,8 @@
       <c r="Y126" t="s">
         <v>35</v>
       </c>
-      <c r="Z126">
-        <v>20</v>
+      <c r="Z126" t="s">
+        <v>37</v>
       </c>
       <c r="AA126" t="s">
         <v>36</v>
@@ -12187,8 +12187,8 @@
       <c r="Y127" t="s">
         <v>35</v>
       </c>
-      <c r="Z127">
-        <v>20</v>
+      <c r="Z127" t="s">
+        <v>37</v>
       </c>
       <c r="AA127" t="s">
         <v>36</v>
@@ -12279,8 +12279,8 @@
       <c r="Y128" t="s">
         <v>35</v>
       </c>
-      <c r="Z128">
-        <v>20</v>
+      <c r="Z128" t="s">
+        <v>37</v>
       </c>
       <c r="AA128" t="s">
         <v>36</v>
@@ -12371,8 +12371,8 @@
       <c r="Y129" t="s">
         <v>35</v>
       </c>
-      <c r="Z129">
-        <v>20</v>
+      <c r="Z129" t="s">
+        <v>37</v>
       </c>
       <c r="AA129" t="s">
         <v>36</v>
@@ -12463,8 +12463,8 @@
       <c r="Y130" t="s">
         <v>35</v>
       </c>
-      <c r="Z130">
-        <v>20</v>
+      <c r="Z130" t="s">
+        <v>37</v>
       </c>
       <c r="AA130" t="s">
         <v>36</v>
@@ -12555,8 +12555,8 @@
       <c r="Y131" t="s">
         <v>35</v>
       </c>
-      <c r="Z131">
-        <v>20</v>
+      <c r="Z131" t="s">
+        <v>37</v>
       </c>
       <c r="AA131" t="s">
         <v>36</v>
@@ -12647,8 +12647,8 @@
       <c r="Y132" t="s">
         <v>35</v>
       </c>
-      <c r="Z132">
-        <v>20</v>
+      <c r="Z132" t="s">
+        <v>37</v>
       </c>
       <c r="AA132" t="s">
         <v>36</v>
@@ -12739,8 +12739,8 @@
       <c r="Y133" t="s">
         <v>35</v>
       </c>
-      <c r="Z133">
-        <v>20</v>
+      <c r="Z133" t="s">
+        <v>37</v>
       </c>
       <c r="AA133" t="s">
         <v>36</v>
@@ -12831,8 +12831,8 @@
       <c r="Y134" t="s">
         <v>35</v>
       </c>
-      <c r="Z134">
-        <v>20</v>
+      <c r="Z134" t="s">
+        <v>37</v>
       </c>
       <c r="AA134" t="s">
         <v>36</v>
@@ -12923,8 +12923,8 @@
       <c r="Y135" t="s">
         <v>35</v>
       </c>
-      <c r="Z135">
-        <v>20</v>
+      <c r="Z135" t="s">
+        <v>37</v>
       </c>
       <c r="AA135" t="s">
         <v>36</v>
@@ -13015,8 +13015,8 @@
       <c r="Y136" t="s">
         <v>35</v>
       </c>
-      <c r="Z136">
-        <v>20</v>
+      <c r="Z136" t="s">
+        <v>37</v>
       </c>
       <c r="AA136" t="s">
         <v>36</v>
@@ -13107,8 +13107,8 @@
       <c r="Y137" t="s">
         <v>35</v>
       </c>
-      <c r="Z137">
-        <v>20</v>
+      <c r="Z137" t="s">
+        <v>37</v>
       </c>
       <c r="AA137" t="s">
         <v>36</v>
@@ -13199,8 +13199,8 @@
       <c r="Y138" t="s">
         <v>35</v>
       </c>
-      <c r="Z138">
-        <v>20</v>
+      <c r="Z138" t="s">
+        <v>37</v>
       </c>
       <c r="AA138" t="s">
         <v>36</v>
@@ -13291,8 +13291,8 @@
       <c r="Y139" t="s">
         <v>35</v>
       </c>
-      <c r="Z139">
-        <v>20</v>
+      <c r="Z139" t="s">
+        <v>37</v>
       </c>
       <c r="AA139" t="s">
         <v>36</v>
@@ -13383,8 +13383,8 @@
       <c r="Y140" t="s">
         <v>35</v>
       </c>
-      <c r="Z140">
-        <v>20</v>
+      <c r="Z140" t="s">
+        <v>37</v>
       </c>
       <c r="AA140" t="s">
         <v>36</v>
@@ -13475,8 +13475,8 @@
       <c r="Y141" t="s">
         <v>35</v>
       </c>
-      <c r="Z141">
-        <v>20</v>
+      <c r="Z141" t="s">
+        <v>37</v>
       </c>
       <c r="AA141" t="s">
         <v>36</v>
@@ -13567,8 +13567,8 @@
       <c r="Y142" t="s">
         <v>35</v>
       </c>
-      <c r="Z142">
-        <v>20</v>
+      <c r="Z142" t="s">
+        <v>37</v>
       </c>
       <c r="AA142" t="s">
         <v>36</v>
@@ -13659,8 +13659,8 @@
       <c r="Y143" t="s">
         <v>35</v>
       </c>
-      <c r="Z143">
-        <v>20</v>
+      <c r="Z143" t="s">
+        <v>37</v>
       </c>
       <c r="AA143" t="s">
         <v>36</v>
@@ -13751,8 +13751,8 @@
       <c r="Y144" t="s">
         <v>35</v>
       </c>
-      <c r="Z144">
-        <v>20</v>
+      <c r="Z144" t="s">
+        <v>37</v>
       </c>
       <c r="AA144" t="s">
         <v>36</v>
@@ -13843,8 +13843,8 @@
       <c r="Y145" t="s">
         <v>35</v>
       </c>
-      <c r="Z145">
-        <v>20</v>
+      <c r="Z145" t="s">
+        <v>37</v>
       </c>
       <c r="AA145" t="s">
         <v>36</v>
@@ -13935,8 +13935,8 @@
       <c r="Y146" t="s">
         <v>35</v>
       </c>
-      <c r="Z146">
-        <v>20</v>
+      <c r="Z146" t="s">
+        <v>37</v>
       </c>
       <c r="AA146" t="s">
         <v>36</v>
@@ -14027,8 +14027,8 @@
       <c r="Y147" t="s">
         <v>35</v>
       </c>
-      <c r="Z147">
-        <v>20</v>
+      <c r="Z147" t="s">
+        <v>37</v>
       </c>
       <c r="AA147" t="s">
         <v>36</v>
@@ -14119,8 +14119,8 @@
       <c r="Y148" t="s">
         <v>35</v>
       </c>
-      <c r="Z148">
-        <v>20</v>
+      <c r="Z148" t="s">
+        <v>37</v>
       </c>
       <c r="AA148" t="s">
         <v>36</v>
@@ -14211,8 +14211,8 @@
       <c r="Y149" t="s">
         <v>35</v>
       </c>
-      <c r="Z149">
-        <v>20</v>
+      <c r="Z149" t="s">
+        <v>37</v>
       </c>
       <c r="AA149" t="s">
         <v>36</v>
@@ -14303,8 +14303,8 @@
       <c r="Y150" t="s">
         <v>35</v>
       </c>
-      <c r="Z150">
-        <v>20</v>
+      <c r="Z150" t="s">
+        <v>37</v>
       </c>
       <c r="AA150" t="s">
         <v>36</v>
@@ -14395,8 +14395,8 @@
       <c r="Y151" t="s">
         <v>35</v>
       </c>
-      <c r="Z151">
-        <v>20</v>
+      <c r="Z151" t="s">
+        <v>37</v>
       </c>
       <c r="AA151" t="s">
         <v>36</v>
@@ -14487,8 +14487,8 @@
       <c r="Y152" t="s">
         <v>35</v>
       </c>
-      <c r="Z152">
-        <v>20</v>
+      <c r="Z152" t="s">
+        <v>37</v>
       </c>
       <c r="AA152" t="s">
         <v>36</v>
@@ -14579,8 +14579,8 @@
       <c r="Y153" t="s">
         <v>35</v>
       </c>
-      <c r="Z153">
-        <v>20</v>
+      <c r="Z153" t="s">
+        <v>37</v>
       </c>
       <c r="AA153" t="s">
         <v>36</v>
@@ -14671,8 +14671,8 @@
       <c r="Y154" t="s">
         <v>35</v>
       </c>
-      <c r="Z154">
-        <v>20</v>
+      <c r="Z154" t="s">
+        <v>37</v>
       </c>
       <c r="AA154" t="s">
         <v>36</v>
@@ -14763,8 +14763,8 @@
       <c r="Y155" t="s">
         <v>35</v>
       </c>
-      <c r="Z155">
-        <v>20</v>
+      <c r="Z155" t="s">
+        <v>37</v>
       </c>
       <c r="AA155" t="s">
         <v>36</v>
@@ -14855,8 +14855,8 @@
       <c r="Y156" t="s">
         <v>35</v>
       </c>
-      <c r="Z156">
-        <v>20</v>
+      <c r="Z156" t="s">
+        <v>37</v>
       </c>
       <c r="AA156" t="s">
         <v>36</v>
@@ -14947,8 +14947,8 @@
       <c r="Y157" t="s">
         <v>35</v>
       </c>
-      <c r="Z157">
-        <v>20</v>
+      <c r="Z157" t="s">
+        <v>37</v>
       </c>
       <c r="AA157" t="s">
         <v>36</v>
@@ -15039,8 +15039,8 @@
       <c r="Y158" t="s">
         <v>35</v>
       </c>
-      <c r="Z158">
-        <v>20</v>
+      <c r="Z158" t="s">
+        <v>37</v>
       </c>
       <c r="AA158" t="s">
         <v>36</v>
@@ -15131,8 +15131,8 @@
       <c r="Y159" t="s">
         <v>35</v>
       </c>
-      <c r="Z159">
-        <v>20</v>
+      <c r="Z159" t="s">
+        <v>37</v>
       </c>
       <c r="AA159" t="s">
         <v>36</v>
@@ -15223,8 +15223,8 @@
       <c r="Y160" t="s">
         <v>35</v>
       </c>
-      <c r="Z160">
-        <v>20</v>
+      <c r="Z160" t="s">
+        <v>37</v>
       </c>
       <c r="AA160" t="s">
         <v>36</v>
@@ -15315,8 +15315,8 @@
       <c r="Y161" t="s">
         <v>35</v>
       </c>
-      <c r="Z161">
-        <v>20</v>
+      <c r="Z161" t="s">
+        <v>37</v>
       </c>
       <c r="AA161" t="s">
         <v>36</v>
@@ -15407,8 +15407,8 @@
       <c r="Y162" t="s">
         <v>35</v>
       </c>
-      <c r="Z162">
-        <v>20</v>
+      <c r="Z162" t="s">
+        <v>37</v>
       </c>
       <c r="AA162" t="s">
         <v>36</v>
@@ -15499,8 +15499,8 @@
       <c r="Y163" t="s">
         <v>35</v>
       </c>
-      <c r="Z163">
-        <v>20</v>
+      <c r="Z163" t="s">
+        <v>37</v>
       </c>
       <c r="AA163" t="s">
         <v>36</v>
@@ -15591,8 +15591,8 @@
       <c r="Y164" t="s">
         <v>35</v>
       </c>
-      <c r="Z164">
-        <v>20</v>
+      <c r="Z164" t="s">
+        <v>37</v>
       </c>
       <c r="AA164" t="s">
         <v>36</v>
@@ -15683,8 +15683,8 @@
       <c r="Y165" t="s">
         <v>35</v>
       </c>
-      <c r="Z165">
-        <v>20</v>
+      <c r="Z165" t="s">
+        <v>37</v>
       </c>
       <c r="AA165" t="s">
         <v>36</v>
@@ -15775,8 +15775,8 @@
       <c r="Y166" t="s">
         <v>35</v>
       </c>
-      <c r="Z166">
-        <v>20</v>
+      <c r="Z166" t="s">
+        <v>37</v>
       </c>
       <c r="AA166" t="s">
         <v>36</v>
@@ -15867,8 +15867,8 @@
       <c r="Y167" t="s">
         <v>35</v>
       </c>
-      <c r="Z167">
-        <v>20</v>
+      <c r="Z167" t="s">
+        <v>37</v>
       </c>
       <c r="AA167" t="s">
         <v>36</v>
@@ -15959,8 +15959,8 @@
       <c r="Y168" t="s">
         <v>35</v>
       </c>
-      <c r="Z168">
-        <v>20</v>
+      <c r="Z168" t="s">
+        <v>37</v>
       </c>
       <c r="AA168" t="s">
         <v>36</v>
@@ -16051,8 +16051,8 @@
       <c r="Y169" t="s">
         <v>35</v>
       </c>
-      <c r="Z169">
-        <v>20</v>
+      <c r="Z169" t="s">
+        <v>37</v>
       </c>
       <c r="AA169" t="s">
         <v>36</v>
@@ -16143,8 +16143,8 @@
       <c r="Y170" t="s">
         <v>35</v>
       </c>
-      <c r="Z170">
-        <v>20</v>
+      <c r="Z170" t="s">
+        <v>37</v>
       </c>
       <c r="AA170" t="s">
         <v>36</v>
@@ -16235,8 +16235,8 @@
       <c r="Y171" t="s">
         <v>35</v>
       </c>
-      <c r="Z171">
-        <v>20</v>
+      <c r="Z171" t="s">
+        <v>37</v>
       </c>
       <c r="AA171" t="s">
         <v>36</v>
@@ -16327,8 +16327,8 @@
       <c r="Y172" t="s">
         <v>35</v>
       </c>
-      <c r="Z172">
-        <v>20</v>
+      <c r="Z172" t="s">
+        <v>37</v>
       </c>
       <c r="AA172" t="s">
         <v>36</v>
@@ -16419,8 +16419,8 @@
       <c r="Y173" t="s">
         <v>35</v>
       </c>
-      <c r="Z173">
-        <v>20</v>
+      <c r="Z173" t="s">
+        <v>37</v>
       </c>
       <c r="AA173" t="s">
         <v>36</v>
@@ -16511,8 +16511,8 @@
       <c r="Y174" t="s">
         <v>35</v>
       </c>
-      <c r="Z174">
-        <v>20</v>
+      <c r="Z174" t="s">
+        <v>37</v>
       </c>
       <c r="AA174" t="s">
         <v>36</v>
@@ -16603,8 +16603,8 @@
       <c r="Y175" t="s">
         <v>35</v>
       </c>
-      <c r="Z175">
-        <v>20</v>
+      <c r="Z175" t="s">
+        <v>37</v>
       </c>
       <c r="AA175" t="s">
         <v>36</v>
@@ -16695,8 +16695,8 @@
       <c r="Y176" t="s">
         <v>35</v>
       </c>
-      <c r="Z176">
-        <v>20</v>
+      <c r="Z176" t="s">
+        <v>37</v>
       </c>
       <c r="AA176" t="s">
         <v>36</v>
@@ -16787,8 +16787,8 @@
       <c r="Y177" t="s">
         <v>35</v>
       </c>
-      <c r="Z177">
-        <v>20</v>
+      <c r="Z177" t="s">
+        <v>37</v>
       </c>
       <c r="AA177" t="s">
         <v>36</v>
@@ -16879,8 +16879,8 @@
       <c r="Y178" t="s">
         <v>35</v>
       </c>
-      <c r="Z178">
-        <v>20</v>
+      <c r="Z178" t="s">
+        <v>37</v>
       </c>
       <c r="AA178" t="s">
         <v>36</v>
@@ -16971,8 +16971,8 @@
       <c r="Y179" t="s">
         <v>35</v>
       </c>
-      <c r="Z179">
-        <v>20</v>
+      <c r="Z179" t="s">
+        <v>37</v>
       </c>
       <c r="AA179" t="s">
         <v>36</v>
@@ -17063,8 +17063,8 @@
       <c r="Y180" t="s">
         <v>35</v>
       </c>
-      <c r="Z180">
-        <v>20</v>
+      <c r="Z180" t="s">
+        <v>37</v>
       </c>
       <c r="AA180" t="s">
         <v>36</v>
@@ -17155,8 +17155,8 @@
       <c r="Y181" t="s">
         <v>35</v>
       </c>
-      <c r="Z181">
-        <v>20</v>
+      <c r="Z181" t="s">
+        <v>37</v>
       </c>
       <c r="AA181" t="s">
         <v>36</v>
@@ -17247,8 +17247,8 @@
       <c r="Y182" t="s">
         <v>35</v>
       </c>
-      <c r="Z182">
-        <v>20</v>
+      <c r="Z182" t="s">
+        <v>37</v>
       </c>
       <c r="AA182" t="s">
         <v>36</v>
@@ -17339,8 +17339,8 @@
       <c r="Y183" t="s">
         <v>35</v>
       </c>
-      <c r="Z183">
-        <v>20</v>
+      <c r="Z183" t="s">
+        <v>37</v>
       </c>
       <c r="AA183" t="s">
         <v>36</v>
@@ -17431,8 +17431,8 @@
       <c r="Y184" t="s">
         <v>35</v>
       </c>
-      <c r="Z184">
-        <v>20</v>
+      <c r="Z184" t="s">
+        <v>37</v>
       </c>
       <c r="AA184" t="s">
         <v>36</v>
@@ -17523,8 +17523,8 @@
       <c r="Y185" t="s">
         <v>35</v>
       </c>
-      <c r="Z185">
-        <v>20</v>
+      <c r="Z185" t="s">
+        <v>37</v>
       </c>
       <c r="AA185" t="s">
         <v>36</v>
@@ -17615,8 +17615,8 @@
       <c r="Y186" t="s">
         <v>35</v>
       </c>
-      <c r="Z186">
-        <v>20</v>
+      <c r="Z186" t="s">
+        <v>37</v>
       </c>
       <c r="AA186" t="s">
         <v>36</v>
@@ -17707,8 +17707,8 @@
       <c r="Y187" t="s">
         <v>35</v>
       </c>
-      <c r="Z187">
-        <v>20</v>
+      <c r="Z187" t="s">
+        <v>37</v>
       </c>
       <c r="AA187" t="s">
         <v>36</v>
@@ -17799,8 +17799,8 @@
       <c r="Y188" t="s">
         <v>35</v>
       </c>
-      <c r="Z188">
-        <v>20</v>
+      <c r="Z188" t="s">
+        <v>37</v>
       </c>
       <c r="AA188" t="s">
         <v>36</v>
@@ -17891,8 +17891,8 @@
       <c r="Y189" t="s">
         <v>35</v>
       </c>
-      <c r="Z189">
-        <v>20</v>
+      <c r="Z189" t="s">
+        <v>37</v>
       </c>
       <c r="AA189" t="s">
         <v>36</v>
@@ -17983,8 +17983,8 @@
       <c r="Y190" t="s">
         <v>35</v>
       </c>
-      <c r="Z190">
-        <v>20</v>
+      <c r="Z190" t="s">
+        <v>37</v>
       </c>
       <c r="AA190" t="s">
         <v>36</v>
@@ -18075,8 +18075,8 @@
       <c r="Y191" t="s">
         <v>35</v>
       </c>
-      <c r="Z191">
-        <v>20</v>
+      <c r="Z191" t="s">
+        <v>37</v>
       </c>
       <c r="AA191" t="s">
         <v>36</v>
@@ -18167,8 +18167,8 @@
       <c r="Y192" t="s">
         <v>35</v>
       </c>
-      <c r="Z192">
-        <v>20</v>
+      <c r="Z192" t="s">
+        <v>37</v>
       </c>
       <c r="AA192" t="s">
         <v>36</v>
@@ -18259,8 +18259,8 @@
       <c r="Y193" t="s">
         <v>35</v>
       </c>
-      <c r="Z193">
-        <v>20</v>
+      <c r="Z193" t="s">
+        <v>37</v>
       </c>
       <c r="AA193" t="s">
         <v>36</v>
@@ -18351,8 +18351,8 @@
       <c r="Y194" t="s">
         <v>35</v>
       </c>
-      <c r="Z194">
-        <v>20</v>
+      <c r="Z194" t="s">
+        <v>37</v>
       </c>
       <c r="AA194" t="s">
         <v>36</v>
@@ -18443,8 +18443,8 @@
       <c r="Y195" t="s">
         <v>35</v>
       </c>
-      <c r="Z195">
-        <v>20</v>
+      <c r="Z195" t="s">
+        <v>37</v>
       </c>
       <c r="AA195" t="s">
         <v>36</v>
@@ -18535,8 +18535,8 @@
       <c r="Y196" t="s">
         <v>35</v>
       </c>
-      <c r="Z196">
-        <v>20</v>
+      <c r="Z196" t="s">
+        <v>37</v>
       </c>
       <c r="AA196" t="s">
         <v>36</v>
@@ -18627,8 +18627,8 @@
       <c r="Y197" t="s">
         <v>35</v>
       </c>
-      <c r="Z197">
-        <v>20</v>
+      <c r="Z197" t="s">
+        <v>37</v>
       </c>
       <c r="AA197" t="s">
         <v>36</v>
@@ -18719,8 +18719,8 @@
       <c r="Y198" t="s">
         <v>35</v>
       </c>
-      <c r="Z198">
-        <v>20</v>
+      <c r="Z198" t="s">
+        <v>37</v>
       </c>
       <c r="AA198" t="s">
         <v>36</v>
@@ -18811,8 +18811,8 @@
       <c r="Y199" t="s">
         <v>35</v>
       </c>
-      <c r="Z199">
-        <v>20</v>
+      <c r="Z199" t="s">
+        <v>37</v>
       </c>
       <c r="AA199" t="s">
         <v>36</v>
@@ -18903,8 +18903,8 @@
       <c r="Y200" t="s">
         <v>35</v>
       </c>
-      <c r="Z200">
-        <v>20</v>
+      <c r="Z200" t="s">
+        <v>37</v>
       </c>
       <c r="AA200" t="s">
         <v>36</v>
@@ -18995,8 +18995,8 @@
       <c r="Y201" t="s">
         <v>35</v>
       </c>
-      <c r="Z201">
-        <v>20</v>
+      <c r="Z201" t="s">
+        <v>37</v>
       </c>
       <c r="AA201" t="s">
         <v>36</v>
@@ -19087,8 +19087,8 @@
       <c r="Y202" t="s">
         <v>35</v>
       </c>
-      <c r="Z202">
-        <v>20</v>
+      <c r="Z202" t="s">
+        <v>37</v>
       </c>
       <c r="AA202" t="s">
         <v>36</v>
@@ -19179,8 +19179,8 @@
       <c r="Y203" t="s">
         <v>35</v>
       </c>
-      <c r="Z203">
-        <v>20</v>
+      <c r="Z203" t="s">
+        <v>37</v>
       </c>
       <c r="AA203" t="s">
         <v>36</v>
@@ -19271,8 +19271,8 @@
       <c r="Y204" t="s">
         <v>35</v>
       </c>
-      <c r="Z204">
-        <v>20</v>
+      <c r="Z204" t="s">
+        <v>37</v>
       </c>
       <c r="AA204" t="s">
         <v>36</v>
@@ -19363,8 +19363,8 @@
       <c r="Y205" t="s">
         <v>35</v>
       </c>
-      <c r="Z205">
-        <v>20</v>
+      <c r="Z205" t="s">
+        <v>37</v>
       </c>
       <c r="AA205" t="s">
         <v>36</v>
@@ -19455,8 +19455,8 @@
       <c r="Y206" t="s">
         <v>35</v>
       </c>
-      <c r="Z206">
-        <v>20</v>
+      <c r="Z206" t="s">
+        <v>37</v>
       </c>
       <c r="AA206" t="s">
         <v>36</v>
@@ -19547,8 +19547,8 @@
       <c r="Y207" t="s">
         <v>35</v>
       </c>
-      <c r="Z207">
-        <v>20</v>
+      <c r="Z207" t="s">
+        <v>37</v>
       </c>
       <c r="AA207" t="s">
         <v>36</v>
@@ -19639,8 +19639,8 @@
       <c r="Y208" t="s">
         <v>35</v>
       </c>
-      <c r="Z208">
-        <v>20</v>
+      <c r="Z208" t="s">
+        <v>37</v>
       </c>
       <c r="AA208" t="s">
         <v>36</v>
@@ -19731,8 +19731,8 @@
       <c r="Y209" t="s">
         <v>35</v>
       </c>
-      <c r="Z209">
-        <v>20</v>
+      <c r="Z209" t="s">
+        <v>37</v>
       </c>
       <c r="AA209" t="s">
         <v>36</v>
@@ -19823,8 +19823,8 @@
       <c r="Y210" t="s">
         <v>35</v>
       </c>
-      <c r="Z210">
-        <v>20</v>
+      <c r="Z210" t="s">
+        <v>37</v>
       </c>
       <c r="AA210" t="s">
         <v>36</v>
@@ -19915,8 +19915,8 @@
       <c r="Y211" t="s">
         <v>35</v>
       </c>
-      <c r="Z211">
-        <v>20</v>
+      <c r="Z211" t="s">
+        <v>37</v>
       </c>
       <c r="AA211" t="s">
         <v>36</v>
@@ -20007,8 +20007,8 @@
       <c r="Y212" t="s">
         <v>35</v>
       </c>
-      <c r="Z212">
-        <v>20</v>
+      <c r="Z212" t="s">
+        <v>37</v>
       </c>
       <c r="AA212" t="s">
         <v>36</v>
@@ -20099,8 +20099,8 @@
       <c r="Y213" t="s">
         <v>35</v>
       </c>
-      <c r="Z213">
-        <v>20</v>
+      <c r="Z213" t="s">
+        <v>37</v>
       </c>
       <c r="AA213" t="s">
         <v>36</v>
@@ -20191,8 +20191,8 @@
       <c r="Y214" t="s">
         <v>35</v>
       </c>
-      <c r="Z214">
-        <v>20</v>
+      <c r="Z214" t="s">
+        <v>37</v>
       </c>
       <c r="AA214" t="s">
         <v>36</v>
@@ -20283,8 +20283,8 @@
       <c r="Y215" t="s">
         <v>35</v>
       </c>
-      <c r="Z215">
-        <v>20</v>
+      <c r="Z215" t="s">
+        <v>37</v>
       </c>
       <c r="AA215" t="s">
         <v>36</v>
@@ -20375,8 +20375,8 @@
       <c r="Y216" t="s">
         <v>35</v>
       </c>
-      <c r="Z216">
-        <v>20</v>
+      <c r="Z216" t="s">
+        <v>37</v>
       </c>
       <c r="AA216" t="s">
         <v>36</v>
@@ -20467,8 +20467,8 @@
       <c r="Y217" t="s">
         <v>35</v>
       </c>
-      <c r="Z217">
-        <v>20</v>
+      <c r="Z217" t="s">
+        <v>37</v>
       </c>
       <c r="AA217" t="s">
         <v>36</v>
@@ -20559,8 +20559,8 @@
       <c r="Y218" t="s">
         <v>35</v>
       </c>
-      <c r="Z218">
-        <v>20</v>
+      <c r="Z218" t="s">
+        <v>37</v>
       </c>
       <c r="AA218" t="s">
         <v>36</v>
@@ -20651,8 +20651,8 @@
       <c r="Y219" t="s">
         <v>35</v>
       </c>
-      <c r="Z219">
-        <v>20</v>
+      <c r="Z219" t="s">
+        <v>37</v>
       </c>
       <c r="AA219" t="s">
         <v>36</v>
@@ -20743,8 +20743,8 @@
       <c r="Y220" t="s">
         <v>35</v>
       </c>
-      <c r="Z220">
-        <v>20</v>
+      <c r="Z220" t="s">
+        <v>37</v>
       </c>
       <c r="AA220" t="s">
         <v>36</v>
@@ -20835,8 +20835,8 @@
       <c r="Y221" t="s">
         <v>35</v>
       </c>
-      <c r="Z221">
-        <v>20</v>
+      <c r="Z221" t="s">
+        <v>37</v>
       </c>
       <c r="AA221" t="s">
         <v>36</v>
@@ -20927,8 +20927,8 @@
       <c r="Y222" t="s">
         <v>35</v>
       </c>
-      <c r="Z222">
-        <v>20</v>
+      <c r="Z222" t="s">
+        <v>37</v>
       </c>
       <c r="AA222" t="s">
         <v>36</v>
@@ -21019,8 +21019,8 @@
       <c r="Y223" t="s">
         <v>35</v>
       </c>
-      <c r="Z223">
-        <v>20</v>
+      <c r="Z223" t="s">
+        <v>37</v>
       </c>
       <c r="AA223" t="s">
         <v>36</v>
@@ -21111,8 +21111,8 @@
       <c r="Y224" t="s">
         <v>35</v>
       </c>
-      <c r="Z224">
-        <v>20</v>
+      <c r="Z224" t="s">
+        <v>37</v>
       </c>
       <c r="AA224" t="s">
         <v>36</v>
@@ -21203,8 +21203,8 @@
       <c r="Y225" t="s">
         <v>35</v>
       </c>
-      <c r="Z225">
-        <v>20</v>
+      <c r="Z225" t="s">
+        <v>37</v>
       </c>
       <c r="AA225" t="s">
         <v>36</v>
@@ -21295,8 +21295,8 @@
       <c r="Y226" t="s">
         <v>35</v>
       </c>
-      <c r="Z226">
-        <v>20</v>
+      <c r="Z226" t="s">
+        <v>37</v>
       </c>
       <c r="AA226" t="s">
         <v>36</v>
@@ -21387,8 +21387,8 @@
       <c r="Y227" t="s">
         <v>35</v>
       </c>
-      <c r="Z227">
-        <v>20</v>
+      <c r="Z227" t="s">
+        <v>37</v>
       </c>
       <c r="AA227" t="s">
         <v>36</v>
@@ -21479,8 +21479,8 @@
       <c r="Y228" t="s">
         <v>35</v>
       </c>
-      <c r="Z228">
-        <v>20</v>
+      <c r="Z228" t="s">
+        <v>37</v>
       </c>
       <c r="AA228" t="s">
         <v>36</v>
@@ -21571,8 +21571,8 @@
       <c r="Y229" t="s">
         <v>35</v>
       </c>
-      <c r="Z229">
-        <v>20</v>
+      <c r="Z229" t="s">
+        <v>37</v>
       </c>
       <c r="AA229" t="s">
         <v>36</v>
@@ -21663,8 +21663,8 @@
       <c r="Y230" t="s">
         <v>35</v>
       </c>
-      <c r="Z230">
-        <v>20</v>
+      <c r="Z230" t="s">
+        <v>37</v>
       </c>
       <c r="AA230" t="s">
         <v>36</v>
@@ -21755,8 +21755,8 @@
       <c r="Y231" t="s">
         <v>35</v>
       </c>
-      <c r="Z231">
-        <v>20</v>
+      <c r="Z231" t="s">
+        <v>37</v>
       </c>
       <c r="AA231" t="s">
         <v>36</v>
@@ -21847,8 +21847,8 @@
       <c r="Y232" t="s">
         <v>35</v>
       </c>
-      <c r="Z232">
-        <v>20</v>
+      <c r="Z232" t="s">
+        <v>37</v>
       </c>
       <c r="AA232" t="s">
         <v>36</v>
@@ -21939,8 +21939,8 @@
       <c r="Y233" t="s">
         <v>35</v>
       </c>
-      <c r="Z233">
-        <v>20</v>
+      <c r="Z233" t="s">
+        <v>37</v>
       </c>
       <c r="AA233" t="s">
         <v>36</v>
@@ -22031,8 +22031,8 @@
       <c r="Y234" t="s">
         <v>35</v>
       </c>
-      <c r="Z234">
-        <v>20</v>
+      <c r="Z234" t="s">
+        <v>37</v>
       </c>
       <c r="AA234" t="s">
         <v>36</v>
@@ -22123,8 +22123,8 @@
       <c r="Y235" t="s">
         <v>35</v>
       </c>
-      <c r="Z235">
-        <v>20</v>
+      <c r="Z235" t="s">
+        <v>37</v>
       </c>
       <c r="AA235" t="s">
         <v>36</v>
@@ -22215,8 +22215,8 @@
       <c r="Y236" t="s">
         <v>35</v>
       </c>
-      <c r="Z236">
-        <v>20</v>
+      <c r="Z236" t="s">
+        <v>37</v>
       </c>
       <c r="AA236" t="s">
         <v>36</v>
@@ -22307,8 +22307,8 @@
       <c r="Y237" t="s">
         <v>35</v>
       </c>
-      <c r="Z237">
-        <v>20</v>
+      <c r="Z237" t="s">
+        <v>37</v>
       </c>
       <c r="AA237" t="s">
         <v>36</v>
@@ -22399,8 +22399,8 @@
       <c r="Y238" t="s">
         <v>35</v>
       </c>
-      <c r="Z238">
-        <v>20</v>
+      <c r="Z238" t="s">
+        <v>37</v>
       </c>
       <c r="AA238" t="s">
         <v>36</v>
@@ -22491,8 +22491,8 @@
       <c r="Y239" t="s">
         <v>35</v>
       </c>
-      <c r="Z239">
-        <v>20</v>
+      <c r="Z239" t="s">
+        <v>37</v>
       </c>
       <c r="AA239" t="s">
         <v>36</v>
@@ -22583,8 +22583,8 @@
       <c r="Y240" t="s">
         <v>35</v>
       </c>
-      <c r="Z240">
-        <v>20</v>
+      <c r="Z240" t="s">
+        <v>37</v>
       </c>
       <c r="AA240" t="s">
         <v>36</v>
@@ -22675,8 +22675,8 @@
       <c r="Y241" t="s">
         <v>35</v>
       </c>
-      <c r="Z241">
-        <v>20</v>
+      <c r="Z241" t="s">
+        <v>37</v>
       </c>
       <c r="AA241" t="s">
         <v>36</v>
@@ -22767,8 +22767,8 @@
       <c r="Y242" t="s">
         <v>35</v>
       </c>
-      <c r="Z242">
-        <v>20</v>
+      <c r="Z242" t="s">
+        <v>37</v>
       </c>
       <c r="AA242" t="s">
         <v>36</v>
@@ -22859,8 +22859,8 @@
       <c r="Y243" t="s">
         <v>35</v>
       </c>
-      <c r="Z243">
-        <v>20</v>
+      <c r="Z243" t="s">
+        <v>37</v>
       </c>
       <c r="AA243" t="s">
         <v>36</v>
@@ -22951,8 +22951,8 @@
       <c r="Y244" t="s">
         <v>35</v>
       </c>
-      <c r="Z244">
-        <v>20</v>
+      <c r="Z244" t="s">
+        <v>37</v>
       </c>
       <c r="AA244" t="s">
         <v>36</v>
@@ -23043,8 +23043,8 @@
       <c r="Y245" t="s">
         <v>35</v>
       </c>
-      <c r="Z245">
-        <v>20</v>
+      <c r="Z245" t="s">
+        <v>37</v>
       </c>
       <c r="AA245" t="s">
         <v>36</v>
@@ -23135,8 +23135,8 @@
       <c r="Y246" t="s">
         <v>35</v>
       </c>
-      <c r="Z246">
-        <v>20</v>
+      <c r="Z246" t="s">
+        <v>37</v>
       </c>
       <c r="AA246" t="s">
         <v>36</v>
@@ -23227,8 +23227,8 @@
       <c r="Y247" t="s">
         <v>35</v>
       </c>
-      <c r="Z247">
-        <v>20</v>
+      <c r="Z247" t="s">
+        <v>37</v>
       </c>
       <c r="AA247" t="s">
         <v>36</v>
@@ -23319,8 +23319,8 @@
       <c r="Y248" t="s">
         <v>35</v>
       </c>
-      <c r="Z248">
-        <v>20</v>
+      <c r="Z248" t="s">
+        <v>37</v>
       </c>
       <c r="AA248" t="s">
         <v>36</v>
@@ -23411,8 +23411,8 @@
       <c r="Y249" t="s">
         <v>35</v>
       </c>
-      <c r="Z249">
-        <v>20</v>
+      <c r="Z249" t="s">
+        <v>37</v>
       </c>
       <c r="AA249" t="s">
         <v>36</v>
@@ -23503,8 +23503,8 @@
       <c r="Y250" t="s">
         <v>35</v>
       </c>
-      <c r="Z250">
-        <v>20</v>
+      <c r="Z250" t="s">
+        <v>37</v>
       </c>
       <c r="AA250" t="s">
         <v>36</v>
@@ -23595,8 +23595,8 @@
       <c r="Y251" t="s">
         <v>35</v>
       </c>
-      <c r="Z251">
-        <v>20</v>
+      <c r="Z251" t="s">
+        <v>37</v>
       </c>
       <c r="AA251" t="s">
         <v>36</v>
@@ -23687,8 +23687,8 @@
       <c r="Y252" t="s">
         <v>35</v>
       </c>
-      <c r="Z252">
-        <v>20</v>
+      <c r="Z252" t="s">
+        <v>37</v>
       </c>
       <c r="AA252" t="s">
         <v>36</v>
@@ -23779,8 +23779,8 @@
       <c r="Y253" t="s">
         <v>35</v>
       </c>
-      <c r="Z253">
-        <v>20</v>
+      <c r="Z253" t="s">
+        <v>37</v>
       </c>
       <c r="AA253" t="s">
         <v>36</v>
@@ -23871,8 +23871,8 @@
       <c r="Y254" t="s">
         <v>35</v>
       </c>
-      <c r="Z254">
-        <v>20</v>
+      <c r="Z254" t="s">
+        <v>37</v>
       </c>
       <c r="AA254" t="s">
         <v>36</v>
@@ -23963,8 +23963,8 @@
       <c r="Y255" t="s">
         <v>35</v>
       </c>
-      <c r="Z255">
-        <v>20</v>
+      <c r="Z255" t="s">
+        <v>37</v>
       </c>
       <c r="AA255" t="s">
         <v>36</v>
@@ -24055,8 +24055,8 @@
       <c r="Y256" t="s">
         <v>35</v>
       </c>
-      <c r="Z256">
-        <v>20</v>
+      <c r="Z256" t="s">
+        <v>37</v>
       </c>
       <c r="AA256" t="s">
         <v>36</v>
@@ -24147,8 +24147,8 @@
       <c r="Y257" t="s">
         <v>35</v>
       </c>
-      <c r="Z257">
-        <v>20</v>
+      <c r="Z257" t="s">
+        <v>37</v>
       </c>
       <c r="AA257" t="s">
         <v>36</v>

--- a/aug_pc_result/2026_Jan_21_11_32_30_d_separation_kci_pc_gt_graph_AdaSyn_20_909088/ori_pc_raw_eval_res.xlsx
+++ b/aug_pc_result/2026_Jan_21_11_32_30_d_separation_kci_pc_gt_graph_AdaSyn_20_909088/ori_pc_raw_eval_res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CausalLearning\code\aug_pc_result\2026_Jan_21_11_32_30_d_separation_kci_pc_gt_graph_AdaSyn_20_909088\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE5E299-B225-4845-A2E8-3C84CB8BD3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6276AF3-BE1E-4EF3-B24A-AF593894356A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:AD257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F219" workbookViewId="0">
-      <selection activeCell="M230" sqref="M230"/>
+      <selection activeCell="Q233" sqref="Q233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
